--- a/DatabaseOK.xlsx
+++ b/DatabaseOK.xlsx
@@ -1,34 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\Desktop\COS4501 Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoshimura\Desktop\COS4501 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE274EA3-56AE-4D48-9E9D-467CABFBF49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="11820"/>
+    <workbookView xWindow="-10770" yWindow="3255" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
-    <sheet name="SKILL" sheetId="2" r:id="rId2"/>
+    <sheet name="SKILLFORJOB" sheetId="3" r:id="rId2"/>
+    <sheet name="SKILL" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DB!$A$1:$S$83</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="39">
   <si>
     <t>สถิติ</t>
   </si>
@@ -119,11 +129,38 @@
   <si>
     <t>Engineer</t>
   </si>
+  <si>
+    <t>Programmer</t>
+  </si>
+  <si>
+    <t>Developper</t>
+  </si>
+  <si>
+    <t>Business Analyst</t>
+  </si>
+  <si>
+    <t>Cloud &amp; Infrastructure</t>
+  </si>
+  <si>
+    <t>Application Anlyst</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>Data Scientist</t>
+  </si>
+  <si>
+    <t>Data Engineer</t>
+  </si>
+  <si>
+    <t>AI / Machine Learning Engineer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -167,13 +204,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -455,10 +491,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
+    <sheetView topLeftCell="D58" workbookViewId="0">
       <selection activeCell="R80" sqref="R80"/>
     </sheetView>
   </sheetViews>
@@ -480,7 +516,7 @@
     <col min="14" max="14" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.140625" style="4"/>
+    <col min="19" max="19" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -538,7 +574,7 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -597,7 +633,7 @@
       <c r="R2">
         <v>0.4375</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -656,7 +692,7 @@
       <c r="R3">
         <v>0.625</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -715,7 +751,7 @@
       <c r="R4">
         <v>0.5</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -774,7 +810,7 @@
       <c r="R5">
         <v>0.5</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -833,7 +869,7 @@
       <c r="R6">
         <v>0.3125</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -892,7 +928,7 @@
       <c r="R7">
         <v>0.9375</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -951,7 +987,7 @@
       <c r="R8">
         <v>0.9375</v>
       </c>
-      <c r="S8" s="4" t="s">
+      <c r="S8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1010,7 +1046,7 @@
       <c r="R9">
         <v>0.9375</v>
       </c>
-      <c r="S9" s="4" t="s">
+      <c r="S9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1069,7 +1105,7 @@
       <c r="R10">
         <v>0.9375</v>
       </c>
-      <c r="S10" s="4" t="s">
+      <c r="S10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1128,7 +1164,7 @@
       <c r="R11">
         <v>0.9375</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1136,7 +1172,7 @@
       <c r="A12">
         <v>0.8</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
@@ -1187,7 +1223,7 @@
       <c r="R12">
         <v>0.9375</v>
       </c>
-      <c r="S12" s="4" t="s">
+      <c r="S12" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1246,7 +1282,7 @@
       <c r="R13">
         <v>0.9375</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S13" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1254,7 +1290,7 @@
       <c r="A14">
         <v>1</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>0</v>
       </c>
       <c r="C14">
@@ -1305,7 +1341,7 @@
       <c r="R14">
         <v>0.875</v>
       </c>
-      <c r="S14" s="4" t="s">
+      <c r="S14" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1313,7 +1349,7 @@
       <c r="A15">
         <v>1</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>0</v>
       </c>
       <c r="C15">
@@ -1364,7 +1400,7 @@
       <c r="R15">
         <v>0.875</v>
       </c>
-      <c r="S15" s="4" t="s">
+      <c r="S15" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1423,7 +1459,7 @@
       <c r="R16">
         <v>0.9375</v>
       </c>
-      <c r="S16" s="4" t="s">
+      <c r="S16" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1482,7 +1518,7 @@
       <c r="R17">
         <v>0.84375</v>
       </c>
-      <c r="S17" s="4" t="s">
+      <c r="S17" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1541,7 +1577,7 @@
       <c r="R18">
         <v>0.84375</v>
       </c>
-      <c r="S18" s="4" t="s">
+      <c r="S18" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1600,7 +1636,7 @@
       <c r="R19">
         <v>0.625</v>
       </c>
-      <c r="S19" s="4" t="s">
+      <c r="S19" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1659,7 +1695,7 @@
       <c r="R20">
         <v>0.625</v>
       </c>
-      <c r="S20" s="4" t="s">
+      <c r="S20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1718,7 +1754,7 @@
       <c r="R21">
         <v>0.625</v>
       </c>
-      <c r="S21" s="4" t="s">
+      <c r="S21" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1777,7 +1813,7 @@
       <c r="R22">
         <v>0.625</v>
       </c>
-      <c r="S22" s="4" t="s">
+      <c r="S22" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1836,7 +1872,7 @@
       <c r="R23">
         <v>0.5</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="S23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1895,7 +1931,7 @@
       <c r="R24">
         <v>0.9375</v>
       </c>
-      <c r="S24" s="4" t="s">
+      <c r="S24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1954,7 +1990,7 @@
       <c r="R25">
         <v>0.9375</v>
       </c>
-      <c r="S25" s="4" t="s">
+      <c r="S25" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2013,7 +2049,7 @@
       <c r="R26">
         <v>0.9375</v>
       </c>
-      <c r="S26" s="4" t="s">
+      <c r="S26" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2072,7 +2108,7 @@
       <c r="R27">
         <v>0.9375</v>
       </c>
-      <c r="S27" s="4" t="s">
+      <c r="S27" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2131,7 +2167,7 @@
       <c r="R28">
         <v>0.875</v>
       </c>
-      <c r="S28" s="4" t="s">
+      <c r="S28" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2190,7 +2226,7 @@
       <c r="R29">
         <v>0.84375</v>
       </c>
-      <c r="S29" s="4" t="s">
+      <c r="S29" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2249,7 +2285,7 @@
       <c r="R30">
         <v>0.84375</v>
       </c>
-      <c r="S30" s="4" t="s">
+      <c r="S30" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2308,7 +2344,7 @@
       <c r="R31">
         <v>0.84375</v>
       </c>
-      <c r="S31" s="4" t="s">
+      <c r="S31" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2367,7 +2403,7 @@
       <c r="R32">
         <v>0.84375</v>
       </c>
-      <c r="S32" s="4" t="s">
+      <c r="S32" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2426,7 +2462,7 @@
       <c r="R33">
         <v>0.84375</v>
       </c>
-      <c r="S33" s="4" t="s">
+      <c r="S33" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2485,7 +2521,7 @@
       <c r="R34">
         <v>0.84375</v>
       </c>
-      <c r="S34" s="4" t="s">
+      <c r="S34" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2544,7 +2580,7 @@
       <c r="R35">
         <v>0.84375</v>
       </c>
-      <c r="S35" s="4" t="s">
+      <c r="S35" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2603,7 +2639,7 @@
       <c r="R36">
         <v>0.65625</v>
       </c>
-      <c r="S36" s="4" t="s">
+      <c r="S36" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2662,7 +2698,7 @@
       <c r="R37">
         <v>0.46875</v>
       </c>
-      <c r="S37" s="4" t="s">
+      <c r="S37" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2721,7 +2757,7 @@
       <c r="R38">
         <v>0.625</v>
       </c>
-      <c r="S38" s="4" t="s">
+      <c r="S38" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2729,7 +2765,7 @@
       <c r="A39">
         <v>0</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>0</v>
       </c>
       <c r="C39">
@@ -2780,7 +2816,7 @@
       <c r="R39">
         <v>0.9375</v>
       </c>
-      <c r="S39" s="4" t="s">
+      <c r="S39" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2839,7 +2875,7 @@
       <c r="R40">
         <v>0.9375</v>
       </c>
-      <c r="S40" s="4" t="s">
+      <c r="S40" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2847,7 +2883,7 @@
       <c r="A41">
         <v>1</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
@@ -2898,7 +2934,7 @@
       <c r="R41">
         <v>0.9375</v>
       </c>
-      <c r="S41" s="4" t="s">
+      <c r="S41" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2957,7 +2993,7 @@
       <c r="R42">
         <v>0.9375</v>
       </c>
-      <c r="S42" s="4" t="s">
+      <c r="S42" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3016,7 +3052,7 @@
       <c r="R43">
         <v>0.9375</v>
       </c>
-      <c r="S43" s="4" t="s">
+      <c r="S43" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3024,7 +3060,7 @@
       <c r="A44">
         <v>0.4</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
@@ -3075,7 +3111,7 @@
       <c r="R44">
         <v>0.9375</v>
       </c>
-      <c r="S44" s="4" t="s">
+      <c r="S44" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3083,7 +3119,7 @@
       <c r="A45">
         <v>0.4</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
@@ -3134,7 +3170,7 @@
       <c r="R45">
         <v>0.9375</v>
       </c>
-      <c r="S45" s="4" t="s">
+      <c r="S45" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3193,7 +3229,7 @@
       <c r="R46">
         <v>0.9375</v>
       </c>
-      <c r="S46" s="4" t="s">
+      <c r="S46" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3201,7 +3237,7 @@
       <c r="A47">
         <v>0.8</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>0</v>
       </c>
       <c r="C47">
@@ -3252,7 +3288,7 @@
       <c r="R47">
         <v>0.9375</v>
       </c>
-      <c r="S47" s="4" t="s">
+      <c r="S47" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3260,7 +3296,7 @@
       <c r="A48">
         <v>0.8</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>0</v>
       </c>
       <c r="C48">
@@ -3311,7 +3347,7 @@
       <c r="R48">
         <v>0.9375</v>
       </c>
-      <c r="S48" s="4" t="s">
+      <c r="S48" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3370,15 +3406,15 @@
       <c r="R49">
         <v>0.9375</v>
       </c>
-      <c r="S49" s="4" t="s">
+      <c r="S49" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
@@ -3429,7 +3465,7 @@
       <c r="R50">
         <v>0.875</v>
       </c>
-      <c r="S50" s="4" t="s">
+      <c r="S50" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3488,7 +3524,7 @@
       <c r="R51">
         <v>0.875</v>
       </c>
-      <c r="S51" s="4" t="s">
+      <c r="S51" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3547,7 +3583,7 @@
       <c r="R52">
         <v>0.875</v>
       </c>
-      <c r="S52" s="4" t="s">
+      <c r="S52" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3606,7 +3642,7 @@
       <c r="R53">
         <v>0.875</v>
       </c>
-      <c r="S53" s="4" t="s">
+      <c r="S53" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3665,7 +3701,7 @@
       <c r="R54">
         <v>0.9375</v>
       </c>
-      <c r="S54" s="4" t="s">
+      <c r="S54" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3724,7 +3760,7 @@
       <c r="R55">
         <v>0.9375</v>
       </c>
-      <c r="S55" s="4" t="s">
+      <c r="S55" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3783,7 +3819,7 @@
       <c r="R56">
         <v>0.9375</v>
       </c>
-      <c r="S56" s="4" t="s">
+      <c r="S56" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3842,7 +3878,7 @@
       <c r="R57">
         <v>0.9375</v>
       </c>
-      <c r="S57" s="4" t="s">
+      <c r="S57" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3901,7 +3937,7 @@
       <c r="R58">
         <v>0.84375</v>
       </c>
-      <c r="S58" s="4" t="s">
+      <c r="S58" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3960,7 +3996,7 @@
       <c r="R59">
         <v>0.84375</v>
       </c>
-      <c r="S59" s="4" t="s">
+      <c r="S59" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4019,7 +4055,7 @@
       <c r="R60">
         <v>0.84375</v>
       </c>
-      <c r="S60" s="4" t="s">
+      <c r="S60" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -4027,7 +4063,7 @@
       <c r="A61">
         <v>0.8</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>0</v>
       </c>
       <c r="C61">
@@ -4078,7 +4114,7 @@
       <c r="R61">
         <v>0.9375</v>
       </c>
-      <c r="S61" s="4" t="s">
+      <c r="S61" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4137,7 +4173,7 @@
       <c r="R62">
         <v>0.5</v>
       </c>
-      <c r="S62" s="4" t="s">
+      <c r="S62" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4196,7 +4232,7 @@
       <c r="R63">
         <v>0.84375</v>
       </c>
-      <c r="S63" s="4" t="s">
+      <c r="S63" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4255,7 +4291,7 @@
       <c r="R64">
         <v>0.625</v>
       </c>
-      <c r="S64" s="4" t="s">
+      <c r="S64" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4314,7 +4350,7 @@
       <c r="R65">
         <v>0.625</v>
       </c>
-      <c r="S65" s="4" t="s">
+      <c r="S65" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4373,7 +4409,7 @@
       <c r="R66">
         <v>0.6875</v>
       </c>
-      <c r="S66" s="4" t="s">
+      <c r="S66" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4381,7 +4417,7 @@
       <c r="A67">
         <v>0</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67">
         <v>0</v>
       </c>
       <c r="C67">
@@ -4432,7 +4468,7 @@
       <c r="R67">
         <v>0.3125</v>
       </c>
-      <c r="S67" s="4" t="s">
+      <c r="S67" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4440,7 +4476,7 @@
       <c r="A68">
         <v>1</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68">
         <v>0</v>
       </c>
       <c r="C68">
@@ -4491,7 +4527,7 @@
       <c r="R68">
         <v>0.9375</v>
       </c>
-      <c r="S68" s="4" t="s">
+      <c r="S68" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4550,7 +4586,7 @@
       <c r="R69">
         <v>0.9375</v>
       </c>
-      <c r="S69" s="4" t="s">
+      <c r="S69" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4558,7 +4594,7 @@
       <c r="A70">
         <v>1</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70">
         <v>0</v>
       </c>
       <c r="C70">
@@ -4609,66 +4645,66 @@
       <c r="R70">
         <v>0.875</v>
       </c>
-      <c r="S70" s="4" t="s">
+      <c r="S70" s="3" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>1</v>
-      </c>
-      <c r="B71" s="5">
-        <v>0</v>
-      </c>
-      <c r="C71" s="5">
-        <v>1</v>
-      </c>
-      <c r="D71" s="5">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="E71" s="5">
+      <c r="A71" s="4">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4">
+        <v>0</v>
+      </c>
+      <c r="C71" s="4">
+        <v>1</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="E71" s="4">
         <v>0.83333333333333304</v>
       </c>
-      <c r="F71" s="5">
-        <v>1</v>
-      </c>
-      <c r="G71" s="5">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="H71" s="5">
-        <v>1</v>
-      </c>
-      <c r="I71" s="5">
+      <c r="F71" s="4">
+        <v>1</v>
+      </c>
+      <c r="G71" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="H71" s="4">
+        <v>1</v>
+      </c>
+      <c r="I71" s="4">
         <v>0.57142857142857095</v>
       </c>
-      <c r="J71" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="K71" s="5">
-        <v>0</v>
-      </c>
-      <c r="L71" s="5">
+      <c r="J71" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="K71" s="4">
+        <v>0</v>
+      </c>
+      <c r="L71" s="4">
         <v>0.4</v>
       </c>
-      <c r="M71" s="5">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="N71" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="O71" s="5">
-        <v>1</v>
-      </c>
-      <c r="P71" s="5">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="Q71" s="5">
-        <v>1</v>
-      </c>
-      <c r="R71" s="5">
+      <c r="M71" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="N71" s="4">
+        <v>0.75</v>
+      </c>
+      <c r="O71" s="4">
+        <v>1</v>
+      </c>
+      <c r="P71" s="4">
+        <v>0.66666666666666596</v>
+      </c>
+      <c r="Q71" s="4">
+        <v>1</v>
+      </c>
+      <c r="R71" s="4">
         <v>0.875</v>
       </c>
-      <c r="S71" s="4" t="s">
+      <c r="S71" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4727,7 +4763,7 @@
       <c r="R72">
         <v>0.875</v>
       </c>
-      <c r="S72" s="4" t="s">
+      <c r="S72" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4786,7 +4822,7 @@
       <c r="R73">
         <v>0.9375</v>
       </c>
-      <c r="S73" s="4" t="s">
+      <c r="S73" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4845,7 +4881,7 @@
       <c r="R74">
         <v>0.9375</v>
       </c>
-      <c r="S74" s="4" t="s">
+      <c r="S74" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4904,7 +4940,7 @@
       <c r="R75">
         <v>0.9375</v>
       </c>
-      <c r="S75" s="4" t="s">
+      <c r="S75" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4963,7 +4999,7 @@
       <c r="R76">
         <v>0.9375</v>
       </c>
-      <c r="S76" s="4" t="s">
+      <c r="S76" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5022,7 +5058,7 @@
       <c r="R77">
         <v>0.9375</v>
       </c>
-      <c r="S77" s="4" t="s">
+      <c r="S77" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5081,7 +5117,7 @@
       <c r="R78">
         <v>0.9375</v>
       </c>
-      <c r="S78" s="4" t="s">
+      <c r="S78" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5140,7 +5176,7 @@
       <c r="R79">
         <v>0.84375</v>
       </c>
-      <c r="S79" s="4" t="s">
+      <c r="S79" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5199,7 +5235,7 @@
       <c r="R80">
         <v>0.84375</v>
       </c>
-      <c r="S80" s="4" t="s">
+      <c r="S80" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5258,7 +5294,7 @@
       <c r="R81">
         <v>0.84375</v>
       </c>
-      <c r="S81" s="4" t="s">
+      <c r="S81" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5317,7 +5353,7 @@
       <c r="R82">
         <v>0.84375</v>
       </c>
-      <c r="S82" s="4" t="s">
+      <c r="S82" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5376,13 +5412,13 @@
       <c r="R83">
         <v>0.9375</v>
       </c>
-      <c r="S83" s="4" t="s">
+      <c r="S83" s="3" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S83">
-    <sortState ref="A2:S83">
+  <autoFilter ref="A1:S83" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S83">
       <sortCondition ref="S1:S83"/>
     </sortState>
   </autoFilter>
@@ -5392,11 +5428,264 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71CA2A6-756C-4188-B13F-2A0E42304D7E}">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DatabaseOK.xlsx
+++ b/DatabaseOK.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hoshimura\Desktop\COS4501 Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoshi\Desktop\COS4501 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE274EA3-56AE-4D48-9E9D-467CABFBF49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10770" yWindow="3255" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9840" yWindow="3255" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DB!$A$1:$S$83</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -160,7 +159,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -491,11 +490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S83"/>
   <sheetViews>
-    <sheetView topLeftCell="D58" workbookViewId="0">
-      <selection activeCell="R80" sqref="R80"/>
+    <sheetView tabSelected="1" topLeftCell="F34" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5417,8 +5416,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S83" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S83">
+  <autoFilter ref="A1:S83">
+    <sortState ref="A2:S83">
       <sortCondition ref="S1:S83"/>
     </sortState>
   </autoFilter>
@@ -5428,10 +5427,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71CA2A6-756C-4188-B13F-2A0E42304D7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -5681,7 +5680,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
